--- a/data/trans_camb/P24_4_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P24_4_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>9,73</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>1,61</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,84</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6,56</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 3,09</t>
+          <t>-2,05; 4,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,8</t>
+          <t>-1,74; 5,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 2,67</t>
+          <t>-1,73; 4,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 6,24</t>
+          <t>-0,55; 7,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 6,06</t>
+          <t>-2,2; 6,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 7,6</t>
+          <t>-1,93; 7,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 3,63</t>
+          <t>-0,75; 9,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 3,9</t>
+          <t>4,39; 15,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 4,29</t>
+          <t>-1,33; 4,4</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-1,19; 4,8</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-0,12; 5,96</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2,87; 10,7</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>26,69%</t>
+          <t>47,87%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>43,45%</t>
+          <t>73,33%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>86,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>53,23%</t>
+          <t>181,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>53,08%</t>
+          <t>48,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>80,71%</t>
+          <t>51,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>45,55%</t>
+          <t>89,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>50,2%</t>
+          <t>207,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>59,18%</t>
+          <t>47,93%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>56,04%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>84,29%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>194,78%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-68,62; 374,6</t>
+          <t>-77,12; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-57,39; 477,12</t>
+          <t>-76,04; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-62,97; 279,18</t>
+          <t>-82,93; 838,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 207,46</t>
+          <t>-44,42; 1023,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,55; 210,44</t>
+          <t>-42,38; 234,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 252,94</t>
+          <t>-34,83; 293,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 148,49</t>
+          <t>-15,83; 375,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 156,87</t>
+          <t>50,02; 579,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 166,7</t>
+          <t>-29,0; 206,6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-27,94; 229,43</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-5,72; 284,58</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>52,45; 498,82</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>8,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>10,58</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,26</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>8,09</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 2,24</t>
+          <t>-2,27; 5,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 11,32</t>
+          <t>3,63; 19,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 6,55</t>
+          <t>-1,02; 7,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 7,48</t>
+          <t>0,89; 11,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 5,47</t>
+          <t>-6,57; 4,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 9,33</t>
+          <t>-1,98; 10,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 3,67</t>
+          <t>-6,07; 4,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,93</t>
+          <t>3,08; 18,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 6,26</t>
+          <t>-3,31; 3,49</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,48; 11,8</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,61; 4,32</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3,37; 13,41</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>88,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>253,14%</t>
+          <t>516,73%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>154,48%</t>
+          <t>169,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38,31%</t>
+          <t>336,55%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>45,56%</t>
+          <t>-15,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>78,23%</t>
+          <t>62,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>29,29%</t>
+          <t>-8,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>101,05%</t>
+          <t>162,04%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>95,42%</t>
+          <t>4,44%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>146,33%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>23,63%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>189,08%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-80,5; 415,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 1385,52</t>
+          <t>27,39; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-35,94; 919,35</t>
+          <t>-61,18; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,44; 267,71</t>
+          <t>-21,83; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,96; 206,94</t>
+          <t>-72,93; 153,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,32; 326,06</t>
+          <t>-26,05; 286,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-37,16; 167,3</t>
+          <t>-65,18; 142,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,04; 317,05</t>
+          <t>26,1; 481,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 264,8</t>
+          <t>-56,08; 119,48</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10,0; 399,5</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-44,77; 152,28</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>45,42; 472,99</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-5,21</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4,14</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 6,85</t>
+          <t>0,0; 21,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 5,67</t>
+          <t>0,0; 12,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 4,27</t>
+          <t>0,0; 18,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 5,27</t>
+          <t>0,0; 20,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 14,87</t>
+          <t>-13,37; 5,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 6,82</t>
+          <t>-8,59; 12,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 4,21</t>
+          <t>-16,4; 0,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 8,11</t>
+          <t>-7,67; 14,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 4,1</t>
+          <t>-4,4; 7,12</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 8,12</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-4,33; 6,79</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-1,96; 12,67</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>50,75%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-32,31%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>72,19%</t>
+          <t>-51,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-9,31%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-8,13%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>60,59%</t>
+          <t>52,36%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-6,63%</t>
+          <t>15,82%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>59,5%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5,91%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>161,06%</t>
         </is>
       </c>
     </row>
@@ -1243,27 +1432,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-58,82; 698,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 410,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-86,25; 272,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-56,54; 499,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-84,84; 266,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4,54</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4,48</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>0,46</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,44</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>1,7</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>2,49</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>9,34</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3,64</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>6,89</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 2,15</t>
+          <t>-0,92; 3,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,46; 5,38</t>
+          <t>1,84; 9,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 3,18</t>
+          <t>0,3; 5,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 4,8</t>
+          <t>1,87; 7,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,01; 5,07</t>
+          <t>-2,81; 3,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,62; 6,09</t>
+          <t>-0,9; 6,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 2,8</t>
+          <t>-2,22; 4,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,25</t>
+          <t>4,79; 14,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,9</t>
+          <t>-1,27; 3,05</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 6,29</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 4,25</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4,11; 9,73</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>22,99%</t>
+          <t>90,46%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>122,02%</t>
+          <t>292,52%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>65,21%</t>
+          <t>161,4%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>36,41%</t>
+          <t>288,63%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>53,14%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>67,75%</t>
+          <t>53,2%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>70,99%</t>
+          <t>170,46%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>64,09%</t>
+          <t>24,87%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>99,75%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>49,72%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>188,75%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-45,7; 189,25</t>
+          <t>-42,85; 534,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,77; 423,46</t>
+          <t>31,23; 1330,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,47; 268,36</t>
+          <t>-3,55; 826,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 130,06</t>
+          <t>53,71; 1261,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 147,66</t>
+          <t>-41,63; 98,46</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,87; 173,24</t>
+          <t>-13,78; 154,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 100,81</t>
+          <t>-30,6; 128,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,71; 149,33</t>
+          <t>64,15; 358,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,25; 140,09</t>
+          <t>-27,37; 115,31</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>22,19; 231,74</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-7,15; 170,55</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>82,91; 376,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
